--- a/strats/play/baseline_strategy.xlsx
+++ b/strats/play/baseline_strategy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zigsi\IdeaProjects\BlackjackSimulator\strategies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zigsi\IdeaProjects\BlackjackSimulator\strats\play\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8A39D7-A366-431E-97B2-DF30FCA93191}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3D7CB1-AEB1-40CB-971D-615599D65522}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="4464" windowWidth="23040" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="27">
   <si>
     <t>PLAYER\DEALER</t>
   </si>
@@ -72,9 +72,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>A-A</t>
   </si>
   <si>
@@ -103,6 +100,12 @@
   </si>
   <si>
     <t>2-2</t>
+  </si>
+  <si>
+    <t>Dh</t>
+  </si>
+  <si>
+    <t>Ds</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -174,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,6 +204,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +538,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -561,7 +573,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -596,7 +608,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -631,7 +643,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -666,7 +678,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -701,7 +713,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -718,25 +730,25 @@
       <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>14</v>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>14</v>
@@ -745,33 +757,33 @@
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -806,7 +818,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -841,7 +853,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>14</v>
@@ -1092,31 +1104,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1130,28 +1142,28 @@
         <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1174,16 +1186,16 @@
         <v>14</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>14</v>
@@ -1243,20 +1255,20 @@
       <c r="F22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>15</v>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1278,20 +1290,20 @@
       <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>15</v>
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1313,20 +1325,20 @@
       <c r="F24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>15</v>
+      <c r="G24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1349,16 +1361,16 @@
         <v>14</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>14</v>
@@ -1384,13 +1396,13 @@
         <v>14</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>14</v>
@@ -1419,13 +1431,13 @@
         <v>14</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>14</v>
@@ -1454,10 +1466,10 @@
         <v>14</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>14</v>
@@ -1489,10 +1501,10 @@
         <v>14</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>14</v>
